--- a/test-output/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/ExcelReport/ExtentExcel.xlsx
@@ -189,16 +189,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Jun 26, 2024 4:43:00 pm</t>
+    <t>Jun 26, 2024 10:24:54 pm</t>
   </si>
   <si>
-    <t>Jun 26, 2024 4:42:25 pm</t>
+    <t>Jun 26, 2024 10:24:38 pm</t>
   </si>
   <si>
-    <t>Jun 26, 2024 4:42:53 pm</t>
+    <t>Jun 26, 2024 10:24:52 pm</t>
   </si>
   <si>
-    <t>28.207 s</t>
+    <t>13.405 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -207,7 +207,7 @@
     <t>Verify the following country available in country dropdown list.</t>
   </si>
   <si>
-    <t>7.876 s</t>
+    <t>2.133 s</t>
   </si>
   <si>
     <t>Country Dropdown</t>
@@ -216,7 +216,7 @@
     <t>An Australian Coming to UK For Tourism.</t>
   </si>
   <si>
-    <t>6.041 s</t>
+    <t>3.754 s</t>
   </si>
   <si>
     <t>Visa Confirmation</t>
@@ -225,13 +225,13 @@
     <t>Verify that a Chilean coming to UK for work and plans on staying for longer than six months</t>
   </si>
   <si>
-    <t>6.694 s</t>
+    <t>4.105 s</t>
   </si>
   <si>
     <t>Verify that a Columbian National coming to UK to join partner for a long stay they do have an Article 10 or 20 card</t>
   </si>
   <si>
-    <t>5.207 s</t>
+    <t>2.740 s</t>
   </si>
   <si>
     <t>@smoke</t>
@@ -243,10 +243,10 @@
     <t>@sanity</t>
   </si>
   <si>
-    <t>7.887 s</t>
+    <t>2.136 s</t>
   </si>
   <si>
-    <t>18.006 s</t>
+    <t>10.616 s</t>
   </si>
 </sst>
 </file>
@@ -2791,13 +2791,13 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6825,7 +6825,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="D99B" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="C8E9" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6940,10 +6940,10 @@
         <v>29</v>
       </c>
       <c r="G23" s="67" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H23" s="68" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="70"/>
@@ -6965,10 +6965,10 @@
         <v>29</v>
       </c>
       <c r="G24" s="76" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H24" s="77" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="I24" s="78"/>
       <c r="J24" s="79"/>
@@ -6990,10 +6990,10 @@
         <v>29</v>
       </c>
       <c r="G25" s="85" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H25" s="86" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="I25" s="87"/>
       <c r="J25" s="88"/>
@@ -7422,10 +7422,10 @@
         <v>54</v>
       </c>
       <c r="J23" s="199" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="K23" s="200" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="L23" s="201"/>
       <c r="M23" s="202"/>
@@ -7504,7 +7504,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
